--- a/data/DATA_Public0.5NCR0.3W0.6_0.4.xlsx
+++ b/data/DATA_Public0.5NCR0.3W0.6_0.4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftzor\Desktop\IFAC\DEMo2\data for demo-20240309T223431Z-001\data for demo\Flow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MobilityEquity\MobDemo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63D5A7D-4DA2-48CE-BD9E-C49A8C05C224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A3DF00-21E6-40E2-8868-7E5F2CC9E301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{0C703401-F6B9-4BDC-A58C-850889903314}"/>
+    <workbookView xWindow="41520" yWindow="3120" windowWidth="21600" windowHeight="11715" xr2:uid="{7253CBCA-F62B-479E-B161-E9B06D2B3837}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -401,16 +408,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B058022-A2D7-485A-8EFE-54B82D025832}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFFD8AE-C6BE-4BA3-89B2-D41AC72A9D2A}">
   <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C84"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -421,7 +428,7 @@
         <v>37.983232785704956</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -432,7 +439,7 @@
         <v>93.388364850738114</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -443,7 +450,7 @@
         <v>96.092905611337116</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -454,7 +461,7 @@
         <v>25.601151234957843</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -465,7 +472,7 @@
         <v>50.982361540574352</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -476,7 +483,7 @@
         <v>72.676774156245997</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -487,7 +494,7 @@
         <v>68.222120718490132</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -498,7 +505,7 @@
         <v>132.33630767319551</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -509,7 +516,7 @@
         <v>29.39903001389667</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -520,7 +527,7 @@
         <v>29.788222188627781</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -531,7 +538,7 @@
         <v>31.078660225938798</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -542,7 +549,7 @@
         <v>32.940604904005106</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -553,7 +560,7 @@
         <v>34.605623788152229</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -564,7 +571,7 @@
         <v>42.582279900352788</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -575,7 +582,7 @@
         <v>84.365524798375802</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -586,7 +593,7 @@
         <v>106.27193004068157</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -597,7 +604,7 @@
         <v>31.301357289114993</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -608,7 +615,7 @@
         <v>28.117023898265252</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -619,7 +626,7 @@
         <v>33.18795594773286</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -630,7 +637,7 @@
         <v>80.517617066345494</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -641,7 +648,7 @@
         <v>70.260281368388164</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>6</v>
       </c>
@@ -652,7 +659,7 @@
         <v>23.335230685077246</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -663,7 +670,7 @@
         <v>32.808717203317521</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>6</v>
       </c>
@@ -674,7 +681,7 @@
         <v>22.205179098100441</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>6</v>
       </c>
@@ -685,7 +692,7 @@
         <v>30.737469762958185</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>6</v>
       </c>
@@ -696,7 +703,7 @@
         <v>31.207051059545726</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>6</v>
       </c>
@@ -707,7 +714,7 @@
         <v>45.185726022126282</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>6</v>
       </c>
@@ -718,7 +725,7 @@
         <v>52.495959809181521</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>6</v>
       </c>
@@ -729,7 +736,7 @@
         <v>72.152354589360996</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>7</v>
       </c>
@@ -740,7 +747,7 @@
         <v>25.032410616191868</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>7</v>
       </c>
@@ -751,7 +758,7 @@
         <v>31.016143165561562</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>7</v>
       </c>
@@ -762,7 +769,7 @@
         <v>26.932583934980805</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>7</v>
       </c>
@@ -773,7 +780,7 @@
         <v>32.241019507527028</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -784,7 +791,7 @@
         <v>24.249249836736016</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>7</v>
       </c>
@@ -795,7 +802,7 @@
         <v>48.452497769804999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>7</v>
       </c>
@@ -806,7 +813,7 @@
         <v>80.791359282704477</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>7</v>
       </c>
@@ -817,7 +824,7 @@
         <v>91.99273285859104</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>8</v>
       </c>
@@ -828,7 +835,7 @@
         <v>31.782929069244073</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>8</v>
       </c>
@@ -839,7 +846,7 @@
         <v>28.575189275434013</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>8</v>
       </c>
@@ -850,7 +857,7 @@
         <v>28.244605312648602</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>8</v>
       </c>
@@ -861,7 +868,7 @@
         <v>54.768182024959422</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>8</v>
       </c>
@@ -872,7 +879,7 @@
         <v>66.236478804312554</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>9</v>
       </c>
@@ -883,7 +890,7 @@
         <v>29.044302994911504</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>9</v>
       </c>
@@ -894,7 +901,7 @@
         <v>26.04131868065285</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>9</v>
       </c>
@@ -905,7 +912,7 @@
         <v>27.844114931050083</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>9</v>
       </c>
@@ -916,7 +923,7 @@
         <v>54.87787350977387</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>9</v>
       </c>
@@ -927,7 +934,7 @@
         <v>51.710752924632004</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>10</v>
       </c>
@@ -938,7 +945,7 @@
         <v>24.811378931671292</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>10</v>
       </c>
@@ -949,7 +956,7 @@
         <v>23.519840508943375</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>10</v>
       </c>
@@ -960,7 +967,7 @@
         <v>24.190978577897543</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>10</v>
       </c>
@@ -971,7 +978,7 @@
         <v>24.811781822749694</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>10</v>
       </c>
@@ -982,7 +989,7 @@
         <v>26.834623197870002</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>10</v>
       </c>
@@ -993,7 +1000,7 @@
         <v>55.770524891211885</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>10</v>
       </c>
@@ -1004,7 +1011,7 @@
         <v>41.241238787264741</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>10</v>
       </c>
@@ -1015,7 +1022,7 @@
         <v>51.984555540639462</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>11</v>
       </c>
@@ -1026,7 +1033,7 @@
         <v>27.591109947338733</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>11</v>
       </c>
@@ -1037,7 +1044,7 @@
         <v>27.573259994584827</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>11</v>
       </c>
@@ -1048,7 +1055,7 @@
         <v>25.894738078021412</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>11</v>
       </c>
@@ -1059,7 +1066,7 @@
         <v>32.123673375703341</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>11</v>
       </c>
@@ -1070,7 +1077,7 @@
         <v>31.24015420456611</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>11</v>
       </c>
@@ -1081,7 +1088,7 @@
         <v>32.440842576878936</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>11</v>
       </c>
@@ -1092,7 +1099,7 @@
         <v>42.767877775063013</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>11</v>
       </c>
@@ -1103,7 +1110,7 @@
         <v>76.8141468624152</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>12</v>
       </c>
@@ -1114,7 +1121,7 @@
         <v>24.831041936276304</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>12</v>
       </c>
@@ -1125,7 +1132,7 @@
         <v>26.62794992036066</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>12</v>
       </c>
@@ -1136,7 +1143,7 @@
         <v>23.222265509557538</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>12</v>
       </c>
@@ -1147,7 +1154,7 @@
         <v>23.706565350236954</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>12</v>
       </c>
@@ -1158,7 +1165,7 @@
         <v>36.151744564098422</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>13</v>
       </c>
@@ -1169,7 +1176,7 @@
         <v>32.744874907160892</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>13</v>
       </c>
@@ -1180,7 +1187,7 @@
         <v>28.525387514715316</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>13</v>
       </c>
@@ -1191,7 +1198,7 @@
         <v>22.816019552645418</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>14</v>
       </c>
@@ -1202,7 +1209,7 @@
         <v>24.754485194278967</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>14</v>
       </c>
@@ -1213,7 +1220,7 @@
         <v>26.065756481229098</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>14</v>
       </c>
@@ -1224,7 +1231,7 @@
         <v>31.25014936834663</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>14</v>
       </c>
@@ -1235,7 +1242,7 @@
         <v>22.325442709320054</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>14</v>
       </c>
@@ -1246,7 +1253,7 @@
         <v>23.046514534067182</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>15</v>
       </c>
@@ -1257,7 +1264,7 @@
         <v>24.025735710971496</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>15</v>
       </c>
@@ -1268,7 +1275,7 @@
         <v>29.344048337979164</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>15</v>
       </c>
@@ -1279,7 +1286,7 @@
         <v>30.25907873344989</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>15</v>
       </c>
@@ -1290,7 +1297,7 @@
         <v>29.328878360894482</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>15</v>
       </c>
@@ -1301,7 +1308,7 @@
         <v>27.41017402084077</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>16</v>
       </c>
@@ -1312,7 +1319,7 @@
         <v>28.213021576094899</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>16</v>
       </c>
@@ -1323,7 +1330,7 @@
         <v>25.436168923655337</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>16</v>
       </c>
@@ -1335,6 +1342,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>